--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit3-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit3-Robo4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H2">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I2">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J2">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N2">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O2">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P2">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q2">
-        <v>22.67996358632356</v>
+        <v>102.6029920348845</v>
       </c>
       <c r="R2">
-        <v>204.119672276912</v>
+        <v>923.42692831396</v>
       </c>
       <c r="S2">
-        <v>0.01003511147024216</v>
+        <v>0.04189095938200652</v>
       </c>
       <c r="T2">
-        <v>0.01003511147024215</v>
+        <v>0.04189095938200652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H3">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I3">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J3">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.01635</v>
       </c>
       <c r="O3">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P3">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q3">
-        <v>0.003169095066666666</v>
+        <v>0.01315070103333333</v>
       </c>
       <c r="R3">
-        <v>0.0285218556</v>
+        <v>0.1183563093</v>
       </c>
       <c r="S3">
-        <v>1.402216636404647E-06</v>
+        <v>5.369195107341278E-06</v>
       </c>
       <c r="T3">
-        <v>1.402216636404647E-06</v>
+        <v>5.369195107341278E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H4">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I4">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J4">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,22 +691,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O4">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P4">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q4">
-        <v>0.016453708992</v>
+        <v>0.068277474576</v>
       </c>
       <c r="R4">
-        <v>0.148083380928</v>
+        <v>0.614497271184</v>
       </c>
       <c r="S4">
-        <v>7.28020586123044E-06</v>
+        <v>2.787646692795025E-05</v>
       </c>
       <c r="T4">
-        <v>7.280205861230438E-06</v>
+        <v>2.787646692795025E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H5">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I5">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J5">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N5">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O5">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P5">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q5">
-        <v>0.1673906322791111</v>
+        <v>0.04923831591177778</v>
       </c>
       <c r="R5">
-        <v>1.506515690512</v>
+        <v>0.4431448432059999</v>
       </c>
       <c r="S5">
-        <v>7.406465392246642E-05</v>
+        <v>2.010312029884472E-05</v>
       </c>
       <c r="T5">
-        <v>7.406465392246642E-05</v>
+        <v>2.010312029884472E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H6">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I6">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J6">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N6">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O6">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P6">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q6">
-        <v>0.04280255390133333</v>
+        <v>0.1882376063751111</v>
       </c>
       <c r="R6">
-        <v>0.385222985112</v>
+        <v>1.694138457376</v>
       </c>
       <c r="S6">
-        <v>1.893867236497425E-05</v>
+        <v>7.685403482332075E-05</v>
       </c>
       <c r="T6">
-        <v>1.893867236497425E-05</v>
+        <v>7.685403482332075E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>154.510379</v>
       </c>
       <c r="I7">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J7">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N7">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O7">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P7">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q7">
-        <v>2008.815223444473</v>
+        <v>2189.999553226598</v>
       </c>
       <c r="R7">
-        <v>18079.33701100026</v>
+        <v>19709.99597903938</v>
       </c>
       <c r="S7">
-        <v>0.8888323216947649</v>
+        <v>0.8941374955190032</v>
       </c>
       <c r="T7">
-        <v>0.8888323216947647</v>
+        <v>0.8941374955190033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>154.510379</v>
       </c>
       <c r="I8">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J8">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>0.01635</v>
       </c>
       <c r="O8">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P8">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q8">
         <v>0.2806938551833333</v>
@@ -951,10 +951,10 @@
         <v>2.52624469665</v>
       </c>
       <c r="S8">
-        <v>0.0001241974712638136</v>
+        <v>0.0001146022611335349</v>
       </c>
       <c r="T8">
-        <v>0.0001241974712638136</v>
+        <v>0.000114602261133535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>154.510379</v>
       </c>
       <c r="I9">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J9">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O9">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P9">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q9">
         <v>1.457341894728</v>
@@ -1013,10 +1013,10 @@
         <v>13.116077052552</v>
       </c>
       <c r="S9">
-        <v>0.0006448241553909853</v>
+        <v>0.0005950065286301845</v>
       </c>
       <c r="T9">
-        <v>0.0006448241553909852</v>
+        <v>0.0005950065286301845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>154.510379</v>
       </c>
       <c r="I10">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J10">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N10">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O10">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P10">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q10">
-        <v>14.82616359168422</v>
+        <v>1.050962430138111</v>
       </c>
       <c r="R10">
-        <v>133.435472325158</v>
+        <v>9.458661871242999</v>
       </c>
       <c r="S10">
-        <v>0.006560072451276573</v>
+        <v>0.0004290890898967345</v>
       </c>
       <c r="T10">
-        <v>0.006560072451276572</v>
+        <v>0.0004290890898967345</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>154.510379</v>
       </c>
       <c r="I11">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J11">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N11">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O11">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P11">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q11">
-        <v>3.791118162603667</v>
+        <v>4.017819224236444</v>
       </c>
       <c r="R11">
-        <v>34.12006346343301</v>
+        <v>36.160373018128</v>
       </c>
       <c r="S11">
-        <v>0.001677440671973955</v>
+        <v>0.001640403448171465</v>
       </c>
       <c r="T11">
-        <v>0.001677440671973955</v>
+        <v>0.001640403448171465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H12">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I12">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J12">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N12">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O12">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P12">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q12">
-        <v>0.3183205701075555</v>
+        <v>0.1356574610688889</v>
       </c>
       <c r="R12">
-        <v>2.864885130968</v>
+        <v>1.22091714962</v>
       </c>
       <c r="S12">
-        <v>0.0001408460111561478</v>
+        <v>5.538650558621943E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001408460111561478</v>
+        <v>5.538650558621943E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H13">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I13">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J13">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1249,22 +1249,22 @@
         <v>0.01635</v>
       </c>
       <c r="O13">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P13">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q13">
-        <v>4.447926666666667E-05</v>
+        <v>1.738731666666667E-05</v>
       </c>
       <c r="R13">
-        <v>0.0004003134</v>
+        <v>0.00015648585</v>
       </c>
       <c r="S13">
-        <v>1.968056065944419E-08</v>
+        <v>7.098929200795391E-09</v>
       </c>
       <c r="T13">
-        <v>1.968056065944419E-08</v>
+        <v>7.098929200795391E-09</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H14">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I14">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J14">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1311,22 +1311,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O14">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P14">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q14">
-        <v>0.000230933088</v>
+        <v>9.027367200000001E-05</v>
       </c>
       <c r="R14">
-        <v>0.002078397792</v>
+        <v>0.0008124630480000001</v>
       </c>
       <c r="S14">
-        <v>1.021800264990152E-07</v>
+        <v>3.685711938820301E-08</v>
       </c>
       <c r="T14">
-        <v>1.021800264990152E-07</v>
+        <v>3.685711938820301E-08</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H15">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I15">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J15">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N15">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O15">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P15">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q15">
-        <v>0.002349381263111111</v>
+        <v>6.510087855555555E-05</v>
       </c>
       <c r="R15">
-        <v>0.021144431368</v>
+        <v>0.0005859079069999999</v>
       </c>
       <c r="S15">
-        <v>1.039521195511763E-06</v>
+        <v>2.657951980948572E-08</v>
       </c>
       <c r="T15">
-        <v>1.039521195511763E-06</v>
+        <v>2.657951980948572E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H16">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I16">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J16">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N16">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O16">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P16">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q16">
-        <v>0.0006007475853333333</v>
+        <v>0.0002488800302222222</v>
       </c>
       <c r="R16">
-        <v>0.005406728268</v>
+        <v>0.002239920272</v>
       </c>
       <c r="S16">
-        <v>2.658103467121152E-07</v>
+        <v>1.01613247628168E-07</v>
       </c>
       <c r="T16">
-        <v>2.658103467121152E-07</v>
+        <v>1.01613247628168E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.171561333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H17">
-        <v>15.514684</v>
+        <v>10.381682</v>
       </c>
       <c r="I17">
-        <v>0.09015372449937761</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J17">
-        <v>0.0901537244993776</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N17">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O17">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P17">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q17">
-        <v>201.7089959123742</v>
+        <v>147.1479074020045</v>
       </c>
       <c r="R17">
-        <v>1815.380963211368</v>
+        <v>1324.33116661804</v>
       </c>
       <c r="S17">
-        <v>0.08924936104182762</v>
+        <v>0.06007784850980605</v>
       </c>
       <c r="T17">
-        <v>0.0892493610418276</v>
+        <v>0.06007784850980605</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.171561333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H18">
-        <v>15.514684</v>
+        <v>10.381682</v>
       </c>
       <c r="I18">
-        <v>0.09015372449937761</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J18">
-        <v>0.0901537244993776</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.01635</v>
       </c>
       <c r="O18">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P18">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q18">
-        <v>0.02818500926666666</v>
+        <v>0.01886005563333334</v>
       </c>
       <c r="R18">
-        <v>0.2536650834</v>
+        <v>0.1697405007</v>
       </c>
       <c r="S18">
-        <v>1.247090669719442E-05</v>
+        <v>7.700222077439338E-06</v>
       </c>
       <c r="T18">
-        <v>1.247090669719442E-05</v>
+        <v>7.700222077439338E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.171561333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H19">
-        <v>15.514684</v>
+        <v>10.381682</v>
       </c>
       <c r="I19">
-        <v>0.09015372449937761</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J19">
-        <v>0.0901537244993776</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1621,22 +1621,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O19">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P19">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q19">
-        <v>0.146334499488</v>
+        <v>0.09792002462400003</v>
       </c>
       <c r="R19">
-        <v>1.317010495392</v>
+        <v>0.8812802216160002</v>
       </c>
       <c r="S19">
-        <v>6.474803227592908E-05</v>
+        <v>3.997898787215111E-05</v>
       </c>
       <c r="T19">
-        <v>6.474803227592905E-05</v>
+        <v>3.997898787215111E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.171561333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H20">
-        <v>15.514684</v>
+        <v>10.381682</v>
       </c>
       <c r="I20">
-        <v>0.09015372449937761</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J20">
-        <v>0.0901537244993776</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N20">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O20">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P20">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q20">
-        <v>1.488723570196444</v>
+        <v>0.07061504744377779</v>
       </c>
       <c r="R20">
-        <v>13.398512131768</v>
+        <v>0.635535426994</v>
       </c>
       <c r="S20">
-        <v>0.0006587094780128746</v>
+        <v>2.883085595807976E-05</v>
       </c>
       <c r="T20">
-        <v>0.0006587094780128745</v>
+        <v>2.883085595807976E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.171561333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H21">
-        <v>15.514684</v>
+        <v>10.381682</v>
       </c>
       <c r="I21">
-        <v>0.09015372449937761</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J21">
-        <v>0.0901537244993776</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N21">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O21">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P21">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q21">
-        <v>0.3806734581853333</v>
+        <v>0.2699606446471111</v>
       </c>
       <c r="R21">
-        <v>3.426061123668</v>
+        <v>2.429645801824</v>
       </c>
       <c r="S21">
-        <v>0.0001684350405639972</v>
+        <v>0.0001102200839894363</v>
       </c>
       <c r="T21">
-        <v>0.0001684350405639971</v>
+        <v>0.0001102200839894363</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.059197</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H22">
-        <v>0.177591</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I22">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J22">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N22">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O22">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P22">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q22">
-        <v>2.308890228964667</v>
+        <v>1.378600699342222</v>
       </c>
       <c r="R22">
-        <v>20.780012060682</v>
+        <v>12.40740629408</v>
       </c>
       <c r="S22">
-        <v>0.00102160529191437</v>
+        <v>0.0005628579123746782</v>
       </c>
       <c r="T22">
-        <v>0.00102160529191437</v>
+        <v>0.0005628579123746782</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.059197</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H23">
-        <v>0.177591</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I23">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J23">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1869,22 +1869,22 @@
         <v>0.01635</v>
       </c>
       <c r="O23">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P23">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q23">
-        <v>0.00032262365</v>
+        <v>0.0001766962666666666</v>
       </c>
       <c r="R23">
-        <v>0.00290361285</v>
+        <v>0.0015902664</v>
       </c>
       <c r="S23">
-        <v>1.427499774575786E-07</v>
+        <v>7.214191304839232E-08</v>
       </c>
       <c r="T23">
-        <v>1.427499774575785E-07</v>
+        <v>7.214191304839232E-08</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.059197</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H24">
-        <v>0.177591</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I24">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J24">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1931,22 +1931,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O24">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P24">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q24">
-        <v>0.001675038312</v>
+        <v>0.000917394048</v>
       </c>
       <c r="R24">
-        <v>0.015075344808</v>
+        <v>0.008256546432</v>
       </c>
       <c r="S24">
-        <v>7.411474058971823E-07</v>
+        <v>3.745555177279466E-07</v>
       </c>
       <c r="T24">
-        <v>7.411474058971822E-07</v>
+        <v>3.745555177279466E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.059197</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H25">
-        <v>0.177591</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I25">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J25">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N25">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O25">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P25">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q25">
-        <v>0.01704088253133333</v>
+        <v>0.0006615789208888888</v>
       </c>
       <c r="R25">
-        <v>0.153367942782</v>
+        <v>0.005954210287999999</v>
       </c>
       <c r="S25">
-        <v>7.540010154881943E-06</v>
+        <v>2.701107945616778E-07</v>
       </c>
       <c r="T25">
-        <v>7.540010154881942E-06</v>
+        <v>2.701107945616778E-07</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.059197</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H26">
-        <v>0.177591</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I26">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J26">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N26">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O26">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P26">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q26">
-        <v>0.004357431973</v>
+        <v>0.002529209827555555</v>
       </c>
       <c r="R26">
-        <v>0.039216887757</v>
+        <v>0.022762888448</v>
       </c>
       <c r="S26">
-        <v>1.928015245995395E-06</v>
+        <v>1.032630959910786E-06</v>
       </c>
       <c r="T26">
-        <v>1.928015245995395E-06</v>
+        <v>1.032630959910786E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.03994766666666667</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H27">
-        <v>0.119843</v>
+        <v>0.030577</v>
       </c>
       <c r="I27">
-        <v>0.0006963914189408505</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J27">
-        <v>0.0006963914189408506</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>39.00350066666667</v>
+        <v>42.52140666666667</v>
       </c>
       <c r="N27">
-        <v>117.010502</v>
+        <v>127.56422</v>
       </c>
       <c r="O27">
-        <v>0.98996865118361</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="P27">
-        <v>0.9899686511836098</v>
+        <v>0.9969014941438233</v>
       </c>
       <c r="Q27">
-        <v>1.558098843465111</v>
+        <v>0.4333923505488889</v>
       </c>
       <c r="R27">
-        <v>14.022889591186</v>
+        <v>3.90053115494</v>
       </c>
       <c r="S27">
-        <v>0.0006894056737047141</v>
+        <v>0.000176946315046477</v>
       </c>
       <c r="T27">
-        <v>0.000689405673704714</v>
+        <v>0.000176946315046477</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.03994766666666667</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H28">
-        <v>0.119843</v>
+        <v>0.030577</v>
       </c>
       <c r="I28">
-        <v>0.0006963914189408505</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J28">
-        <v>0.0006963914189408506</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2179,22 +2179,22 @@
         <v>0.01635</v>
       </c>
       <c r="O28">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="P28">
-        <v>0.0001383293565123925</v>
+        <v>0.0001277735985000458</v>
       </c>
       <c r="Q28">
-        <v>0.0002177147833333333</v>
+        <v>5.554821666666666E-05</v>
       </c>
       <c r="R28">
-        <v>0.00195943305</v>
+        <v>0.00049993395</v>
       </c>
       <c r="S28">
-        <v>9.633137686283983E-08</v>
+        <v>2.267933948100728E-08</v>
       </c>
       <c r="T28">
-        <v>9.633137686283983E-08</v>
+        <v>2.267933948100728E-08</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.03994766666666667</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H29">
-        <v>0.119843</v>
+        <v>0.030577</v>
       </c>
       <c r="I29">
-        <v>0.0006963914189408505</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J29">
-        <v>0.0006963914189408506</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2241,22 +2241,22 @@
         <v>0.08488800000000001</v>
       </c>
       <c r="O29">
-        <v>0.0007181958663990202</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="P29">
-        <v>0.0007181958663990201</v>
+        <v>0.0006633911455334487</v>
       </c>
       <c r="Q29">
-        <v>0.001130359176</v>
+        <v>0.000288402264</v>
       </c>
       <c r="R29">
-        <v>0.010173232584</v>
+        <v>0.002595620376</v>
       </c>
       <c r="S29">
-        <v>5.001454384790672E-07</v>
+        <v>1.177494660467123E-07</v>
       </c>
       <c r="T29">
-        <v>5.001454384790672E-07</v>
+        <v>1.177494660467123E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.03994766666666667</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H30">
-        <v>0.119843</v>
+        <v>0.030577</v>
       </c>
       <c r="I30">
-        <v>0.0006963914189408505</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J30">
-        <v>0.0006963914189408506</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.2878673333333333</v>
+        <v>0.02040566666666667</v>
       </c>
       <c r="N30">
-        <v>0.863602</v>
+        <v>0.06121699999999999</v>
       </c>
       <c r="O30">
-        <v>0.007306514308429066</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="P30">
-        <v>0.007306514308429065</v>
+        <v>0.0004784046715215476</v>
       </c>
       <c r="Q30">
-        <v>0.01149962827622222</v>
+        <v>0.0002079813565555555</v>
       </c>
       <c r="R30">
-        <v>0.103496654486</v>
+        <v>0.001871832209</v>
       </c>
       <c r="S30">
-        <v>5.088193866758545E-06</v>
+        <v>8.49150535173592E-08</v>
       </c>
       <c r="T30">
-        <v>5.088193866758545E-06</v>
+        <v>8.49150535173592E-08</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.03994766666666667</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H31">
-        <v>0.119843</v>
+        <v>0.030577</v>
       </c>
       <c r="I31">
-        <v>0.0006963914189408505</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J31">
-        <v>0.0006963914189408506</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.07360900000000001</v>
+        <v>0.07801066666666666</v>
       </c>
       <c r="N31">
-        <v>0.220827</v>
+        <v>0.234032</v>
       </c>
       <c r="O31">
-        <v>0.001868309285049671</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="P31">
-        <v>0.00186830928504967</v>
+        <v>0.001828936440621573</v>
       </c>
       <c r="Q31">
-        <v>0.002940507795666667</v>
+        <v>0.0007951107182222221</v>
       </c>
       <c r="R31">
-        <v>0.026464570161</v>
+        <v>0.007155996463999999</v>
       </c>
       <c r="S31">
-        <v>1.301074554036106E-06</v>
+        <v>3.246294298115655E-07</v>
       </c>
       <c r="T31">
-        <v>1.301074554036106E-06</v>
+        <v>3.246294298115655E-07</v>
       </c>
     </row>
   </sheetData>
